--- a/backup_journal.xlsx
+++ b/backup_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misha\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FEAD97-A6CA-443E-A3A1-4AD66C6109C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEFA46B-6F36-431A-A0A7-477B8F5536EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Filename</t>
+  </si>
+  <si>
+    <t>Size</t>
   </si>
   <si>
     <t>Status</t>
@@ -394,15 +397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E1"/>
+  <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,6 +418,9 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
